--- a/YSteam開発資料まとめ/試験項目書/試験項目書_quiz.xlsx
+++ b/YSteam開発資料まとめ/試験項目書/試験項目書_quiz.xlsx
@@ -1,31 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D048FE-FCF7-4650-A6F1-F2E4DAF53782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体試験項目書" sheetId="8" r:id="rId1"/>
     <sheet name="結合試験項目書" sheetId="10" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -65,11 +56,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>単体試験項目書</t>
     <rPh sb="0" eb="2">
       <t>タンタイ</t>
@@ -109,118 +95,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①Form.ユーザIDがNullであること
-②Form.パスワードがNullであること
-③loginビューが戻されること</t>
-    <rPh sb="54" eb="55">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン①
-正常</t>
-    <rPh sb="6" eb="8">
-      <t>セイジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①initメソッドを実行</t>
-    <rPh sb="10" eb="12">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①listビューが戻されること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン②
-ユーザID未入力</t>
-    <rPh sb="11" eb="12">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①DBに存在するユーザIDとパスワードを設定
-②loginメソッドを実行</t>
-    <rPh sb="4" eb="6">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①ユーザIDに空欄を設定
-②loginメソッドを実行</t>
-    <rPh sb="7" eb="9">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン③
-パスワード未入力</t>
-    <rPh sb="11" eb="12">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①Form.ユーザIDとForm.パスワードが入力した値であること
-②エラーメッセージが設定されていること
-③loginビューが戻されること</t>
-    <rPh sb="23" eb="25">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン④
-レコードなし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①パスワードに空欄を設定
-②loginメソッドを実行</t>
-    <rPh sb="7" eb="9">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
@@ -228,50 +102,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン⑤
-パスワード不一致</t>
-    <rPh sb="11" eb="14">
-      <t>フイッチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①DBに存在しないユーザIDを設定
-②loginメソッドを実行</t>
-    <rPh sb="15" eb="17">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①DBに存在するユーザIDを設定
-②DBと異なるパスワードを設定
-③loginメソッドを実行</t>
-    <rPh sb="14" eb="16">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>ログイン画面</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>試験対象</t>
     <rPh sb="0" eb="4">
       <t>シケンタイショウ</t>
@@ -301,243 +131,621 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①ブラウザでlocalhost:8080にアクセスする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①ログイン画面が表示されること
-②ユーザIDとパスワードが空欄であること
-③ログイン情報保持のチェックボックスが空欄であること</t>
-    <rPh sb="5" eb="7">
+    <t>クイズ画面</t>
+    <rPh sb="3" eb="5">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>get要求を実行</t>
+    <rPh sb="3" eb="5">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①index.htmlビューが戻されること
+②modelの内容がないこと
+③session情報の値が空かどうか
+１ユーザー名２最高得点３初回登録か４正解と問題IDのセット</t>
+    <rPh sb="15" eb="16">
+      <t>モド</t>
     </rPh>
     <rPh sb="29" eb="31">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="42" eb="44">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
       <t>ジョウホウ</t>
     </rPh>
-    <rPh sb="44" eb="46">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>クウラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①登録済のユーザIDとパスワードを入力
-②ログインボタンをクリック</t>
-    <rPh sb="1" eb="3">
+    <rPh sb="48" eb="49">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="63" eb="67">
+      <t>サイコウトクテン</t>
+    </rPh>
+    <rPh sb="68" eb="72">
+      <t>ショカイトウロク</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>セイカイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>accessQuizメソッドを実行</t>
+    <rPh sb="15" eb="17">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calculateScoreメソッド実行</t>
+    <rPh sb="18" eb="20">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採点処理①ー１初回登録　正常系</t>
+    <rPh sb="0" eb="4">
+      <t>サイテンショリ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ショカイトウロク</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>セイジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採点処理①ー２初回登録　選択肢無回答</t>
+    <rPh sb="0" eb="2">
+      <t>サイテン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
       <t>トウロク</t>
     </rPh>
-    <rPh sb="3" eb="4">
-      <t>スミ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①ユーザ一覧画面に遷移すること</t>
-    <rPh sb="4" eb="6">
-      <t>イチラン</t>
-    </rPh>
+    <rPh sb="12" eb="15">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ムカイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採点処理①ー３初回登録　選択肢1問だけ回答しない</t>
+    <rPh sb="0" eb="2">
+      <t>サイテン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採点処理①ー４初回登録　タイマー０秒</t>
+    <rPh sb="0" eb="4">
+      <t>サイテンショリ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ショカイトウロク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採点処理①ー５初回登録　リセット実行</t>
+    <rPh sb="0" eb="4">
+      <t>サイテンショリ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ショカイトウロク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-6までを２回目以降登録ユーザーも実行</t>
+    <rPh sb="7" eb="11">
+      <t>カイメイコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採点処理②２回目以降登録</t>
+    <rPh sb="0" eb="4">
+      <t>サイテンショリ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>カイメイコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採点処理③javascriptオフにする</t>
+    <rPh sb="0" eb="4">
+      <t>サイテンショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採点処理④
+cookieオフにする</t>
+    <rPh sb="0" eb="4">
+      <t>サイテンショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採点処理⑤
+変数がそろっているか？</t>
+    <rPh sb="0" eb="4">
+      <t>サイテンショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①ウェルカム画面から遷移</t>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="9" eb="11">
+    <rPh sb="10" eb="12">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①ユーザIDに空欄を設定
-②ログインボタンをクリック</t>
-    <rPh sb="7" eb="9">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーメッセージは「～」</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未入力はJavaScriptで処理される。
-エラーメッセージは「～」</t>
-    <rPh sb="0" eb="1">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①メッセージ欄にエラーメッセージが表示されること
-②画面遷移しないこと</t>
-    <rPh sb="6" eb="7">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
+    <t>①問題画面が表示されること
+②ラジオボタンが選択されていない状態であること</t>
+    <rPh sb="1" eb="5">
+      <t>モンダイガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="26" eb="28">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①パスワードに空欄を設定
-②ログインボタンをクリック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①DBに存在しないユーザIDを設定
-②ログインボタンをクリック</t>
-    <rPh sb="15" eb="17">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①ポップアップ画面でエラーメッセージが表示されること
-②ユーザIDのテキストボックスの背景色が赤になること
-③画面遷移しないこと</t>
+    <rPh sb="22" eb="24">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①タイマーが開始していること
+②ユーザー名、点数が表示されていること</t>
+    <rPh sb="6" eb="8">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①選択肢全て回答
+②タイマー1秒以上経過
+③キャンセルで回答リセットせずに提出</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採点処理①正常系</t>
+    <rPh sb="0" eb="4">
+      <t>サイテンショリ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>セイジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①result画面に遷移していること
+②正しい計算結果が得られていること</t>
     <rPh sb="7" eb="9">
       <t>ガメン</t>
     </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>ケイサンケッカ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①選択肢無回答のものがある
+②タイマー1秒以上経過
+③キャンセルで回答リセットせずに提出</t>
+    <rPh sb="4" eb="7">
+      <t>ムカイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採点処理②無回答有</t>
+    <rPh sb="0" eb="4">
+      <t>サイテンショリ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ムカイトウアリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①ポップアップ画面でエラーメッセージが表示されること
+②画面遷移しないこと
+③JavaScriptオフにしてもエラーにならないこと</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
     <rPh sb="19" eb="21">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="43" eb="46">
-      <t>ハイケイショク</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
+    <rPh sb="28" eb="30">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="57" eb="59">
+    <rPh sb="30" eb="32">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①ポップアップ画面でエラーメッセージが表示されること
-②パスワードのテキストボックスの背景色が赤になること
-③画面遷移しないこと</t>
-    <rPh sb="7" eb="9">
+    <t>採点処理③タイマー０秒</t>
+    <rPh sb="0" eb="2">
+      <t>サイテン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①選択肢全て回答
+②タイマー０秒で提出
+③キャンセルで回答リセットせずに提出</t>
+    <rPh sb="4" eb="5">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果画面が表示されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calculateScoreメソッド実行
+・選択肢全て回答
+・タイマー1秒以上経過
+・キャンセルで回答リセットせずに提出</t>
+    <rPh sb="18" eb="20">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①結果画面が表示されること
+②採点結果に間違いがないこと</t>
+    <rPh sb="1" eb="3">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
       <t>ガメン</t>
     </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>サイテンケッカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calculateScoreメソッド実行
+・選択肢無回答
+・タイマー1秒以上経過
+・キャンセルで回答リセットせずに提出</t>
+    <rPh sb="18" eb="20">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①結果画面が表示されること
+②採点結果に間違いがないこと
+③前のデータで採点されていないか</t>
+    <rPh sb="1" eb="3">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>サイテンケッカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①JavaScriptポップアップして画面遷移しないこと
+②JavaScriptオフにしても結果画面が表示されること</t>
     <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="43" eb="46">
-      <t>ハイケイショク</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン情報保持</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calculateScoreメソッド実行
+・選択肢1問だけ回答しない
+・タイマー1秒以上経過
+・キャンセルで回答リセットせずに提出</t>
+    <rPh sb="22" eb="25">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calculateScoreメソッド実行
+・選択肢全て回答
+・タイマー０秒で回答する
+・キャンセルで回答リセットせずに提出</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calculateScoreメソッド実行
+・選択肢全て回答
+・タイマー０秒で回答する
+・キャンセル１回実行後に回答提出</t>
+    <rPh sb="70" eb="71">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calculateScoreメソッド実行
+①選択肢全て回答
+②タイマー1秒以上経過
+③キャンセルで回答リセットしてから提出</t>
+    <rPh sb="22" eb="25">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">calculateScoreメソッド実行
+</t>
+    <rPh sb="18" eb="20">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①計算処理に渡すリクエストパラメタ
+②セッション情報（ユーザ名、ハイスコア、初回登録かどうか、正解と問題IDのセット
+を1-9の検証と合わせて確認する。</t>
+    <rPh sb="64" eb="66">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①result画面に遷移していること
+②正しい計算結果が得られていること
+前のデータで採点されていないか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採点処理①ー４初回登録　タイマー３０分以上</t>
+    <rPh sb="0" eb="4">
+      <t>サイテンショリ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ショカイトウロク</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>フンイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calculateScoreメソッド実行
+・選択肢全て回答
+・タイマー30分後回答する
+・キャンセルで回答リセットせずに提出</t>
+    <rPh sb="37" eb="38">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①選択肢全て回答
+②タイマー30分後に提出
+③キャンセルで回答リセットせずに提出</t>
+    <rPh sb="4" eb="5">
+      <t>スベ</t>
     </rPh>
     <rPh sb="6" eb="8">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①登録済のユーザIDとパスワードを入力
-②ログイン情報保持のチェックボックスにチェックする
-③ログインボタンをクリック</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>スミ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①ユーザ一覧画面に遷移すること
-②ブラウザでlocalhost:8080にアクセスするとユーザIDとパスワードに値が設定されていること</t>
-    <rPh sb="56" eb="57">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ登録リンク</t>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①ユーザ登録リンクをクリック</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①ユーザ登録画面に遷移すること</t>
-    <rPh sb="4" eb="8">
-      <t>トウロクガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン④
-ログインエラー</t>
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フンゴ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採点処理④タイマー30分</t>
+    <rPh sb="0" eb="2">
+      <t>サイテン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採点処理⑤キャンセル押下</t>
+    <rPh sb="0" eb="2">
+      <t>サイテン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -591,7 +799,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -765,21 +973,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -826,7 +1019,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -851,81 +1044,77 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1230,232 +1419,269 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="33" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="9" t="s">
-        <v>30</v>
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="88.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="21">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" ht="88.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="22"/>
-    </row>
-    <row r="5" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="21">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" ht="88.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
         <v>12</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="22"/>
-    </row>
-    <row r="6" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="21">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="21">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="21">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="23"/>
-    </row>
-    <row r="12" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="23"/>
-    </row>
-    <row r="13" spans="1:6" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24">
-        <v>10</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
-    </row>
-    <row r="14" spans="1:6" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:6" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:6" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" ht="88.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="88.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="88.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="88.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="88.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="88.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B2"/>
@@ -1464,7 +1690,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"OK,NG,実施不可"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1474,234 +1700,236 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="33" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="9" t="s">
-        <v>30</v>
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="21">
+      <c r="F3" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="22"/>
-    </row>
-    <row r="5" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="21">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="22"/>
-    </row>
-    <row r="6" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="21">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="22" t="s">
+      <c r="D7" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="21">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21">
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="22"/>
-    </row>
-    <row r="10" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="21">
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21">
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
         <v>8</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="23"/>
-    </row>
-    <row r="12" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21">
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
         <v>9</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="23"/>
-    </row>
-    <row r="13" spans="1:6" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24">
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
         <v>10</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
-    </row>
-    <row r="14" spans="1:6" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:6" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:6" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="100.15" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>11</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:6" ht="70.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:6" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B2"/>
@@ -1710,7 +1938,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E14" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"OK,NG,実施不可"</formula1>
     </dataValidation>
   </dataValidations>

--- a/YSteam開発資料まとめ/試験項目書/試験項目書_quiz.xlsx
+++ b/YSteam開発資料まとめ/試験項目書/試験項目書_quiz.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D048FE-FCF7-4650-A6F1-F2E4DAF53782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648F79BD-7364-4273-844C-08AFD801FBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -185,13 +185,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>accessQuizメソッドを実行</t>
-    <rPh sb="15" eb="17">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>calculateScoreメソッド実行</t>
     <rPh sb="18" eb="20">
       <t>ジッコウ</t>
@@ -199,92 +192,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>採点処理①ー１初回登録　正常系</t>
-    <rPh sb="0" eb="4">
-      <t>サイテンショリ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ショカイトウロク</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>セイジョウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>採点処理①ー２初回登録　選択肢無回答</t>
-    <rPh sb="0" eb="2">
-      <t>サイテン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショカイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>センタクシ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>ムカイトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>採点処理①ー３初回登録　選択肢1問だけ回答しない</t>
-    <rPh sb="0" eb="2">
-      <t>サイテン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショカイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>センタクシ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>モン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カイトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>採点処理①ー４初回登録　タイマー０秒</t>
-    <rPh sb="0" eb="4">
-      <t>サイテンショリ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ショカイトウロク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>採点処理①ー５初回登録　リセット実行</t>
-    <rPh sb="0" eb="4">
-      <t>サイテンショリ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ショカイトウロク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1-6までを２回目以降登録ユーザーも実行</t>
     <rPh sb="7" eb="11">
       <t>カイメイコウ</t>
@@ -294,42 +201,6 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>採点処理②２回目以降登録</t>
-    <rPh sb="0" eb="4">
-      <t>サイテンショリ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>カイメイコウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>採点処理③javascriptオフにする</t>
-    <rPh sb="0" eb="4">
-      <t>サイテンショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>採点処理④
-cookieオフにする</t>
-    <rPh sb="0" eb="4">
-      <t>サイテンショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>採点処理⑤
-変数がそろっているか？</t>
-    <rPh sb="0" eb="4">
-      <t>サイテンショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -410,15 +281,6 @@
     </rPh>
     <rPh sb="28" eb="29">
       <t>エ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①選択肢無回答のものがある
-②タイマー1秒以上経過
-③キャンセルで回答リセットせずに提出</t>
-    <rPh sb="4" eb="7">
-      <t>ムカイトウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -460,24 +322,6 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①選択肢全て回答
-②タイマー０秒で提出
-③キャンセルで回答リセットせずに提出</t>
-    <rPh sb="4" eb="5">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>テイシュツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -516,43 +360,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>calculateScoreメソッド実行
-・選択肢無回答
-・タイマー1秒以上経過
-・キャンセルで回答リセットせずに提出</t>
-    <rPh sb="18" eb="20">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①結果画面が表示されること
-②採点結果に間違いがないこと
-③前のデータで採点されていないか</t>
-    <rPh sb="1" eb="3">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="15" eb="19">
-      <t>サイテンケッカ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>マチガ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>サイテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>①JavaScriptポップアップして画面遷移しないこと
 ②JavaScriptオフにしても結果画面が表示されること</t>
     <rPh sb="19" eb="21">
@@ -569,76 +376,6 @@
     </rPh>
     <rPh sb="51" eb="53">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>calculateScoreメソッド実行
-・選択肢1問だけ回答しない
-・タイマー1秒以上経過
-・キャンセルで回答リセットせずに提出</t>
-    <rPh sb="22" eb="25">
-      <t>センタクシ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>モン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>テイシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>calculateScoreメソッド実行
-・選択肢全て回答
-・タイマー０秒で回答する
-・キャンセルで回答リセットせずに提出</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>calculateScoreメソッド実行
-・選択肢全て回答
-・タイマー０秒で回答する
-・キャンセル１回実行後に回答提出</t>
-    <rPh sb="70" eb="71">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>カイトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>calculateScoreメソッド実行
-①選択肢全て回答
-②タイマー1秒以上経過
-③キャンセルで回答リセットしてから提出</t>
-    <rPh sb="22" eb="25">
-      <t>センタクシ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>テイシュツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -672,63 +409,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>採点処理①ー４初回登録　タイマー３０分以上</t>
-    <rPh sb="0" eb="4">
-      <t>サイテンショリ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ショカイトウロク</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>フンイジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>calculateScoreメソッド実行
-・選択肢全て回答
-・タイマー30分後回答する
-・キャンセルで回答リセットせずに提出</t>
-    <rPh sb="37" eb="38">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>アト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①選択肢全て回答
-②タイマー30分後に提出
-③キャンセルで回答リセットせずに提出</t>
-    <rPh sb="4" eb="5">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>フンゴ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>テイシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>採点処理④タイマー30分</t>
-    <rPh sb="0" eb="2">
-      <t>サイテン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>フン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>採点処理⑤キャンセル押下</t>
     <rPh sb="0" eb="2">
       <t>サイテン</t>
@@ -738,6 +418,283 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gethomeメソッドを実行</t>
+    <rPh sb="12" eb="14">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">calculateScoreメソッド実行
+・選択肢を回答せずに提出
+</t>
+    <rPh sb="18" eb="20">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calculateScoreメソッド実行
+・選択肢1問だけ回答しない</t>
+    <rPh sb="22" eb="25">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採点処理①　正常系</t>
+    <rPh sb="0" eb="4">
+      <t>サイテンショリ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>セイジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採点処理②選択肢無回答</t>
+    <rPh sb="0" eb="2">
+      <t>サイテン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ムカイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採点処理③　選択肢1問だけ回答しない</t>
+    <rPh sb="0" eb="2">
+      <t>サイテン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採点処理④　タイマー０秒</t>
+    <rPh sb="0" eb="4">
+      <t>サイテンショリ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calculateScoreメソッド実行
+・タイマー０秒で回答する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採点処理⑤タイマーを長い時間経過させる</t>
+    <rPh sb="0" eb="4">
+      <t>サイテンショリ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calculateScoreメソッド実行
+・タイマーを長い時間経過して回答する　１時間で検証</t>
+    <rPh sb="27" eb="28">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採点処理⑦javascriptオフにする</t>
+    <rPh sb="0" eb="4">
+      <t>サイテンショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calculateScoreメソッド実行
+JavaScriptオフにして正常系実行</t>
+    <rPh sb="36" eb="38">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採点処理⑥２回目以降登録</t>
+    <rPh sb="0" eb="4">
+      <t>サイテンショリ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>カイメイコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数がそろっているか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択肢無回答のものがある</t>
+    <rPh sb="3" eb="6">
+      <t>ムカイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイマー０秒で提出</t>
+    <rPh sb="5" eb="6">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンセルで回答リセットしてから提出</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採点処理④タイマー長時間経過後</t>
+    <rPh sb="0" eb="2">
+      <t>サイテン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="9" eb="15">
+      <t>チョウジカンケイカゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１時間タイマーを経過させてから遷移</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>localhost://8080/calculateScoreにアクセス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.htmlに遷移すること</t>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クイズ画面にアクセス</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\n \t "     "  SQLで問題なくても、springboot側で問題が起きる場合</t>
+    <rPh sb="19" eb="21">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同時アクセス</t>
+    <rPh sb="0" eb="2">
+      <t>ドウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同時に同じユーザーで回答を提出</t>
+    <rPh sb="0" eb="2">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テイシュツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1420,13 +1377,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -1440,7 +1397,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>5</v>
       </c>
@@ -1456,7 +1413,7 @@
       </c>
       <c r="F1" s="27"/>
     </row>
-    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
       <c r="C2" s="8" t="s">
@@ -1470,7 +1427,7 @@
       </c>
       <c r="F2" s="25"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -1490,7 +1447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="88.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="88.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -1498,190 +1455,167 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
+        <v>46</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="88.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="D12" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="88.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>49</v>
+        <v>59</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="1:6" ht="88.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:6" ht="88.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" ht="88.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:7" ht="88.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:7" ht="88.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:7" ht="88.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="88.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="88.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="88.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="88.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="88.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B2"/>
@@ -1690,7 +1624,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E15" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E13" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"OK,NG,実施不可"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1707,7 +1641,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -1779,10 +1713,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="14"/>
@@ -1795,10 +1729,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="14"/>
@@ -1808,13 +1742,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="14"/>
@@ -1824,13 +1758,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="14"/>
@@ -1840,13 +1774,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="14"/>
@@ -1856,13 +1790,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="14"/>
@@ -1872,13 +1806,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="14"/>
@@ -1887,9 +1821,15 @@
       <c r="A11" s="13">
         <v>8</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="14"/>
     </row>

--- a/YSteam開発資料まとめ/試験項目書/試験項目書_quiz.xlsx
+++ b/YSteam開発資料まとめ/試験項目書/試験項目書_quiz.xlsx
@@ -3,20 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648F79BD-7364-4273-844C-08AFD801FBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625B0B3A-7834-42B7-8F00-50C4BBFBC5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体試験項目書" sheetId="8" r:id="rId1"/>
     <sheet name="結合試験項目書" sheetId="10" r:id="rId2"/>
+    <sheet name="証跡（単体試験）" sheetId="11" r:id="rId3"/>
+    <sheet name="証跡（結合試験）" sheetId="12" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -143,63 +145,6 @@
       <t>ヨウキュウ</t>
     </rPh>
     <rPh sb="6" eb="8">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①index.htmlビューが戻されること
-②modelの内容がないこと
-③session情報の値が空かどうか
-１ユーザー名２最高得点３初回登録か４正解と問題IDのセット</t>
-    <rPh sb="15" eb="16">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>カラ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="63" eb="67">
-      <t>サイコウトクテン</t>
-    </rPh>
-    <rPh sb="68" eb="72">
-      <t>ショカイトウロク</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>セイカイ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>calculateScoreメソッド実行</t>
-    <rPh sb="18" eb="20">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1-6までを２回目以降登録ユーザーも実行</t>
-    <rPh sb="7" eb="11">
-      <t>カイメイコウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
       <t>ジッコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -246,12 +191,6 @@
     <rPh sb="25" eb="27">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①選択肢全て回答
-②タイマー1秒以上経過
-③キャンセルで回答リセットせずに提出</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -326,89 +265,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>結果画面が表示されること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>calculateScoreメソッド実行
-・選択肢全て回答
-・タイマー1秒以上経過
-・キャンセルで回答リセットせずに提出</t>
-    <rPh sb="18" eb="20">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①結果画面が表示されること
-②採点結果に間違いがないこと</t>
-    <rPh sb="1" eb="3">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="15" eb="19">
-      <t>サイテンケッカ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>マチガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①JavaScriptポップアップして画面遷移しないこと
-②JavaScriptオフにしても結果画面が表示されること</t>
-    <rPh sb="19" eb="21">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">calculateScoreメソッド実行
-</t>
-    <rPh sb="18" eb="20">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①計算処理に渡すリクエストパラメタ
-②セッション情報（ユーザ名、ハイスコア、初回登録かどうか、正解と問題IDのセット
-を1-9の検証と合わせて確認する。</t>
-    <rPh sb="64" eb="66">
-      <t>ケンショウ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①result画面に遷移していること
-②正しい計算結果が得られていること
-前のデータで採点されていないか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>採点処理⑤キャンセル押下</t>
     <rPh sb="0" eb="2">
       <t>サイテン</t>
@@ -503,95 +359,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>採点処理④　タイマー０秒</t>
-    <rPh sb="0" eb="4">
-      <t>サイテンショリ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>calculateScoreメソッド実行
-・タイマー０秒で回答する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>採点処理⑤タイマーを長い時間経過させる</t>
-    <rPh sb="0" eb="4">
-      <t>サイテンショリ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ケイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>calculateScoreメソッド実行
-・タイマーを長い時間経過して回答する　１時間で検証</t>
-    <rPh sb="27" eb="28">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ケイカ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>採点処理⑦javascriptオフにする</t>
-    <rPh sb="0" eb="4">
-      <t>サイテンショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>calculateScoreメソッド実行
-JavaScriptオフにして正常系実行</t>
-    <rPh sb="36" eb="38">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>採点処理⑥２回目以降登録</t>
-    <rPh sb="0" eb="4">
-      <t>サイテンショリ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>カイメイコウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変数がそろっているか？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>選択肢無回答のものがある</t>
     <rPh sb="3" eb="6">
       <t>ムカイトウ</t>
@@ -650,32 +417,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クイズ画面にアクセス</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>\n \t "     "  SQLで問題なくても、springboot側で問題が起きる場合</t>
-    <rPh sb="19" eb="21">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>同時アクセス</t>
     <rPh sb="0" eb="2">
       <t>ドウジ</t>
@@ -695,6 +436,133 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①index.htmlビューが戻されること
+②modelの内容がないこと
+③session情報の値が空かどうか
+１ユーザー名２最高得点３初回登録か４正解と問題IDのセットをチェックする</t>
+    <rPh sb="15" eb="16">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="63" eb="67">
+      <t>サイコウトクテン</t>
+    </rPh>
+    <rPh sb="68" eb="72">
+      <t>ショカイトウロク</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>セイカイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result.htmlにビューが戻ること
+アルゴリズムに沿った採点結果が返ること</t>
+    <rPh sb="16" eb="17">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t>サイテンケッカ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①result画面に遷移していること
+②正しい計算結果が得られていること
+③前のデータで採点されていないこと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">calculateScoreメソッド実行
+・選択肢全て回答
+</t>
+    <rPh sb="18" eb="20">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">選択肢全て回答
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クイズ画面に直接アクセス</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チョクセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2正常系</t>
+    <rPh sb="1" eb="4">
+      <t>セイジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3異常系　１問のみ無回答</t>
+    <rPh sb="1" eb="4">
+      <t>イジョウケイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ムカイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4異常系　無回答</t>
+    <rPh sb="1" eb="4">
+      <t>イジョウケイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ムカイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>1GET要求実行</t>
+    <rPh sb="4" eb="6">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -756,7 +624,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -929,54 +797,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1025,26 +852,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1088,6 +895,452 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{094D871B-58B3-442F-B0F8-83B50C99877B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="51496" t="80523" r="14274" b="10125"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="662940" y="1"/>
+          <a:ext cx="5402580" cy="952499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{713E470A-11AC-4798-918F-A6A6F9C1AC14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="4314" t="7843" r="67941" b="23834"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7124700" y="0"/>
+          <a:ext cx="2537460" cy="2933700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>144779</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60E9AA37-896D-4017-8396-B64BCE06E1C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="55193" t="110353" r="13554" b="-20395"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9715500" y="8122920"/>
+          <a:ext cx="5501640" cy="739140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>160021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>344102</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30E64F2F-CF07-42FE-A5CB-A809D7C6F70E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="55196" t="81046" r="14020" b="10065"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1988820" y="3177541"/>
+          <a:ext cx="4832282" cy="784859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>48697</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>126164</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43DFF933-DFEA-42F3-BAC0-D26BF49548A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="8235" t="9412" r="64166" b="25752"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7132320" y="3066217"/>
+          <a:ext cx="2468880" cy="3262628"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>347134</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>59267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>364068</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F39F1D-5E05-45CF-9CBC-D059ED528824}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="55557" t="87468" r="33433" b="10310"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1947334" y="6493934"/>
+          <a:ext cx="1845734" cy="211666"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104140</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>65936</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>538480</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>85515</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A818F272-9753-499C-B324-E2FBAFE81E5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="4706" t="10980" r="68431" b="21394"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7190740" y="6331269"/>
+          <a:ext cx="2263140" cy="3236912"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>321399</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C659077-44B6-4ACB-B47C-E9F6ADA5764A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="13750" r="73965" b="71339"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="25400"/>
+          <a:ext cx="5807799" cy="1871134"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>389466</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>41611</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A3DFC0B-0D89-4BF6-9E07-177427A497B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="25490" t="37956" r="25054" b="36674"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7476066" y="110067"/>
+          <a:ext cx="8186545" cy="2362201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1377,271 +1630,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="33" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="27"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="25"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="88.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" ht="88.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" ht="88.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" ht="88.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:7" ht="88.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:7" ht="88.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="88.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="88.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="88.2" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E1:F1"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E13" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"OK,NG,実施不可"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -1656,34 +1651,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="21"/>
+      <c r="A1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="16"/>
       <c r="C1" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="27"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="25"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
@@ -1705,6 +1700,173 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:6" ht="88.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="9" spans="1:6" ht="88.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:6" ht="88.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:6" ht="88.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:6" ht="88.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:6" ht="88.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:6" ht="88.2" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E7" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"OK,NG,実施不可"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="33" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="4" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>1</v>
@@ -1713,10 +1875,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="14"/>
@@ -1729,10 +1891,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="14"/>
@@ -1742,13 +1904,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="14"/>
@@ -1758,118 +1920,104 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="88.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="1:6" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>11</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:6" ht="70.2" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" ht="70.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:6" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:6" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:6" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B2"/>
@@ -1878,11 +2026,65 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E14" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E7 E8:E12" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"OK,NG,実施不可"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E70B85-6023-4F9B-B139-C5E41EF17C88}">
+  <dimension ref="A1:A58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5E583E-7540-446E-BC1A-2F5149EE5796}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/YSteam開発資料まとめ/試験項目書/試験項目書_quiz.xlsx
+++ b/YSteam開発資料まとめ/試験項目書/試験項目書_quiz.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625B0B3A-7834-42B7-8F00-50C4BBFBC5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28481F75-E7C8-4E5D-97B8-A34C4CD5C3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体試験項目書" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -252,19 +252,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>採点処理③タイマー０秒</t>
-    <rPh sb="0" eb="2">
-      <t>サイテン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>採点処理⑤キャンセル押下</t>
     <rPh sb="0" eb="2">
       <t>サイテン</t>
@@ -366,43 +353,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タイマー０秒で提出</t>
-    <rPh sb="5" eb="6">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>テイシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>キャンセルで回答リセットしてから提出</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>採点処理④タイマー長時間経過後</t>
-    <rPh sb="0" eb="2">
-      <t>サイテン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="9" eb="15">
-      <t>チョウジカンケイカゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>１時間タイマーを経過させてから遷移</t>
-    <rPh sb="1" eb="3">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ケイカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>センイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -413,29 +364,6 @@
     <t>index.htmlに遷移すること</t>
     <rPh sb="11" eb="13">
       <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>同時アクセス</t>
-    <rPh sb="0" eb="2">
-      <t>ドウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>同時に同じユーザーで回答を提出</t>
-    <rPh sb="0" eb="2">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>テイシュツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -563,6 +491,98 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初回登録ユーザーで結果画面アクセス</t>
+    <rPh sb="0" eb="2">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result.htmlに初回登録ユーザーでアクセス</t>
+    <rPh sb="12" eb="14">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①result.htmlの最高得点が0点になっているか
+②DBに新規ユーザー名と獲得点数が登録されているか</t>
+    <rPh sb="13" eb="17">
+      <t>サイコウトクテン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="40" eb="44">
+      <t>カクトクテンスウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存登録ユーザーで結果画面</t>
+    <rPh sb="0" eb="2">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result.htmlに既存登録ユーザーでアクセス</t>
+    <rPh sb="12" eb="14">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①result.htmlの最高得点がDB上のデータになっているか
+②DBの最高得点データが更新されているか</t>
+    <rPh sb="13" eb="17">
+      <t>サイコウトクテン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="37" eb="41">
+      <t>サイコウトクテン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1708,13 +1728,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F4" s="14"/>
     </row>
@@ -1723,16 +1743,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F5" s="14"/>
     </row>
@@ -1741,16 +1761,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F6" s="14"/>
     </row>
@@ -1759,16 +1779,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F7" s="14"/>
     </row>
@@ -1797,13 +1817,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -1907,7 +1927,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>20</v>
@@ -1923,7 +1943,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>22</v>
@@ -1936,13 +1956,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="14"/>
@@ -1952,72 +1972,48 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:6" ht="88.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
-        <v>7</v>
-      </c>
+    <row r="10" spans="1:6" ht="70.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
-        <v>5</v>
-      </c>
+    <row r="11" spans="1:6" ht="100.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
-        <v>6</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:6" ht="70.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:6" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:6" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:6" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:6" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:6" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B2"/>
@@ -2026,7 +2022,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E7 E8:E12" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E11" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"OK,NG,実施不可"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2039,8 +2035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E70B85-6023-4F9B-B139-C5E41EF17C88}">
   <dimension ref="A1:A58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2050,22 +2046,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
